--- a/biology/Biochimie/Johanna_Budwig/Johanna_Budwig.xlsx
+++ b/biology/Biochimie/Johanna_Budwig/Johanna_Budwig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johanna Budwig, née le 30 septembre 1908 à Essen (district de Düsseldorf) et morte le 19 mai 2003 à Freudenstadt (district de Karlsruhe), est une biochimiste allemande.
 Ses travaux sont critiqués car elle était convaincue de pouvoir combattre le cancer, grâce à un régime alimentaire approprié composé de deux ingrédients.
@@ -512,7 +524,9 @@
           <t>La méthode</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthode Budwig est fondée sur la consommation régulière de graines de lin, d'huile de lin, et de fromage blanc, notamment le matin au petit déjeuner. Les graines de lin sont riches en acides gras polyinsaturés, et particulièrement en acide α-linolénique.
 </t>
@@ -543,11 +557,13 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La communauté scientifique des oncologistes et médecins spécialistes du cancer ne croient pas qu'un régime alimentaire aussi simpliste que celui de Budwig puisse guérir un cancer, et ils considèrent les cas de rémissions ou d'améliorations significatives résultants de cette méthode comme anecdotiques et sans lien avec le régime.
-Cette méthode sans fondement scientifique ni preuve d'efficacité a été liée à de nombreux cas d'abus de faiblesse envers des patients, et demeure dans le viseur de la Mission interministérielle de vigilance et de lutte contre les dérives sectaires (MIVILUDES)[1].
-Le régime Budwig compte encore quelques adeptes au XXIe siècle, aidé par toutes sortes de déclarations spectaculaires des réseaux sociaux spécialisés dans le complotisme médical. De nombreux sites de « santé naturelle » affirment même qu'elle aurait été nommée de nombreuses fois pour un prix Nobel[2], affirmation fantaisiste puisqu'il n'existe aucune publication des « nommés » au prix, seuls les lauréats étant connus[3],[4].
+Cette méthode sans fondement scientifique ni preuve d'efficacité a été liée à de nombreux cas d'abus de faiblesse envers des patients, et demeure dans le viseur de la Mission interministérielle de vigilance et de lutte contre les dérives sectaires (MIVILUDES).
+Le régime Budwig compte encore quelques adeptes au XXIe siècle, aidé par toutes sortes de déclarations spectaculaires des réseaux sociaux spécialisés dans le complotisme médical. De nombreux sites de « santé naturelle » affirment même qu'elle aurait été nommée de nombreuses fois pour un prix Nobel, affirmation fantaisiste puisqu'il n'existe aucune publication des « nommés » au prix, seuls les lauréats étant connus,.
 </t>
         </is>
       </c>
